--- a/project/lccnet/智能報表應用/biggo.xlsx
+++ b/project/lccnet/智能報表應用/biggo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lccnet\AI應用規劃師\智能報表應用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troie\Documents\WORKS\maolahdesign.github.io\project\lccnet\智能報表應用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D19C8AE4-152E-4974-8268-C93517863194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986AEF7-F0D6-4DB7-9D26-3AEA3842F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="336" windowWidth="23256" windowHeight="14172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="復原_工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="642">
   <si>
     <t>ProductItemListPC_product-title__XZPbn</t>
   </si>
@@ -2389,6 +2366,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
@@ -2407,23 +2387,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J280"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2468,12 +2451,9 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2:J280">VALUE(SUBSTITUTE(C2:INDEX(C:C,COUNTA(C:C)),"$",""))</f>
-        <v>14220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2495,11 +2475,8 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2521,11 +2498,8 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2547,11 +2521,9 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2573,11 +2545,8 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2599,11 +2568,8 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>14220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2625,11 +2591,8 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="J8">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2651,11 +2614,8 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2677,11 +2637,8 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="J10">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2703,11 +2660,8 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2729,11 +2683,8 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="J12">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2755,11 +2706,8 @@
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2781,11 +2729,8 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="J14">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2807,11 +2752,8 @@
       <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2833,11 +2775,8 @@
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2859,11 +2798,8 @@
       <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="J17">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2885,11 +2821,8 @@
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="J18">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2908,14 +2841,8 @@
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2937,11 +2864,8 @@
       <c r="G20" t="s">
         <v>10</v>
       </c>
-      <c r="J20">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2963,11 +2887,8 @@
       <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="J21">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -2989,11 +2910,8 @@
       <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3015,11 +2933,8 @@
       <c r="G23" t="s">
         <v>10</v>
       </c>
-      <c r="J23">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -3041,11 +2956,8 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="J24">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3067,11 +2979,8 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="J25">
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3093,11 +3002,8 @@
       <c r="G26" t="s">
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3119,11 +3025,8 @@
       <c r="G27" t="s">
         <v>10</v>
       </c>
-      <c r="J27">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3145,11 +3048,8 @@
       <c r="G28" t="s">
         <v>10</v>
       </c>
-      <c r="J28">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -3171,11 +3071,8 @@
       <c r="G29" t="s">
         <v>10</v>
       </c>
-      <c r="J29">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3197,11 +3094,8 @@
       <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="J30">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3223,11 +3117,8 @@
       <c r="G31" t="s">
         <v>10</v>
       </c>
-      <c r="J31">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -3249,11 +3140,8 @@
       <c r="G32" t="s">
         <v>10</v>
       </c>
-      <c r="J32">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -3275,11 +3163,8 @@
       <c r="G33" t="s">
         <v>10</v>
       </c>
-      <c r="J33">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3301,11 +3186,8 @@
       <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="J34">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3327,11 +3209,8 @@
       <c r="G35" t="s">
         <v>10</v>
       </c>
-      <c r="J35">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -3353,11 +3232,8 @@
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="J36">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -3379,11 +3255,8 @@
       <c r="G37" t="s">
         <v>10</v>
       </c>
-      <c r="J37">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3405,11 +3278,8 @@
       <c r="G38" t="s">
         <v>10</v>
       </c>
-      <c r="J38">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -3431,11 +3301,8 @@
       <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="J39">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -3457,11 +3324,8 @@
       <c r="G40" t="s">
         <v>10</v>
       </c>
-      <c r="J40">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -3483,11 +3347,8 @@
       <c r="G41" t="s">
         <v>10</v>
       </c>
-      <c r="J41">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -3509,11 +3370,8 @@
       <c r="G42" t="s">
         <v>10</v>
       </c>
-      <c r="J42">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3535,11 +3393,8 @@
       <c r="G43" t="s">
         <v>10</v>
       </c>
-      <c r="J43">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -3561,11 +3416,8 @@
       <c r="G44" t="s">
         <v>10</v>
       </c>
-      <c r="J44">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -3587,11 +3439,8 @@
       <c r="G45" t="s">
         <v>10</v>
       </c>
-      <c r="J45">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -3613,11 +3462,8 @@
       <c r="G46" t="s">
         <v>10</v>
       </c>
-      <c r="J46">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -3639,11 +3485,8 @@
       <c r="G47" t="s">
         <v>10</v>
       </c>
-      <c r="J47">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -3665,11 +3508,8 @@
       <c r="G48" t="s">
         <v>136</v>
       </c>
-      <c r="J48">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -3691,11 +3531,8 @@
       <c r="G49" t="s">
         <v>10</v>
       </c>
-      <c r="J49">
-        <v>18811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3717,11 +3554,8 @@
       <c r="G50" t="s">
         <v>136</v>
       </c>
-      <c r="J50">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -3743,11 +3577,8 @@
       <c r="G51" t="s">
         <v>136</v>
       </c>
-      <c r="J51">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -3769,11 +3600,8 @@
       <c r="G52" t="s">
         <v>10</v>
       </c>
-      <c r="J52">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -3795,11 +3623,8 @@
       <c r="G53" t="s">
         <v>10</v>
       </c>
-      <c r="J53">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3821,11 +3646,8 @@
       <c r="G54" t="s">
         <v>10</v>
       </c>
-      <c r="J54">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -3847,11 +3669,8 @@
       <c r="G55" t="s">
         <v>36</v>
       </c>
-      <c r="J55">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3873,11 +3692,8 @@
       <c r="G56" t="s">
         <v>10</v>
       </c>
-      <c r="J56">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -3899,11 +3715,8 @@
       <c r="G57" t="s">
         <v>136</v>
       </c>
-      <c r="J57">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -3925,11 +3738,8 @@
       <c r="G58" t="s">
         <v>136</v>
       </c>
-      <c r="J58">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -3951,11 +3761,8 @@
       <c r="G59" t="s">
         <v>10</v>
       </c>
-      <c r="J59">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -3977,11 +3784,8 @@
       <c r="G60" t="s">
         <v>136</v>
       </c>
-      <c r="J60">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -4003,11 +3807,8 @@
       <c r="G61" t="s">
         <v>136</v>
       </c>
-      <c r="J61" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -4029,11 +3830,8 @@
       <c r="G62" t="s">
         <v>10</v>
       </c>
-      <c r="J62">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -4055,11 +3853,8 @@
       <c r="G63" t="s">
         <v>10</v>
       </c>
-      <c r="J63">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -4081,11 +3876,8 @@
       <c r="G64" t="s">
         <v>10</v>
       </c>
-      <c r="J64">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>169</v>
       </c>
@@ -4107,11 +3899,8 @@
       <c r="G65" t="s">
         <v>10</v>
       </c>
-      <c r="J65">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>171</v>
       </c>
@@ -4133,11 +3922,8 @@
       <c r="G66" t="s">
         <v>10</v>
       </c>
-      <c r="J66">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -4159,11 +3945,8 @@
       <c r="G67" t="s">
         <v>136</v>
       </c>
-      <c r="J67">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>178</v>
       </c>
@@ -4185,11 +3968,8 @@
       <c r="G68" t="s">
         <v>136</v>
       </c>
-      <c r="J68" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -4211,11 +3991,8 @@
       <c r="G69" t="s">
         <v>136</v>
       </c>
-      <c r="J69">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -4237,11 +4014,8 @@
       <c r="G70" t="s">
         <v>136</v>
       </c>
-      <c r="J70">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -4263,11 +4037,8 @@
       <c r="G71" t="s">
         <v>36</v>
       </c>
-      <c r="J71">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -4289,11 +4060,8 @@
       <c r="G72" t="s">
         <v>36</v>
       </c>
-      <c r="J72" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -4315,11 +4083,8 @@
       <c r="G73" t="s">
         <v>10</v>
       </c>
-      <c r="J73">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -4341,11 +4106,8 @@
       <c r="G74" t="s">
         <v>10</v>
       </c>
-      <c r="J74">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>195</v>
       </c>
@@ -4367,11 +4129,8 @@
       <c r="G75" t="s">
         <v>10</v>
       </c>
-      <c r="J75">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -4393,11 +4152,8 @@
       <c r="G76" t="s">
         <v>136</v>
       </c>
-      <c r="J76">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -4419,11 +4175,8 @@
       <c r="G77" t="s">
         <v>136</v>
       </c>
-      <c r="J77">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -4445,11 +4198,8 @@
       <c r="G78" t="s">
         <v>10</v>
       </c>
-      <c r="J78">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -4471,11 +4221,8 @@
       <c r="G79" t="s">
         <v>36</v>
       </c>
-      <c r="J79">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -4497,11 +4244,8 @@
       <c r="G80" t="s">
         <v>136</v>
       </c>
-      <c r="J80" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -4523,11 +4267,8 @@
       <c r="G81" t="s">
         <v>136</v>
       </c>
-      <c r="J81">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -4549,11 +4290,8 @@
       <c r="G82" t="s">
         <v>10</v>
       </c>
-      <c r="J82">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -4575,11 +4313,8 @@
       <c r="G83" t="s">
         <v>10</v>
       </c>
-      <c r="J83">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -4601,11 +4336,8 @@
       <c r="G84" t="s">
         <v>36</v>
       </c>
-      <c r="J84">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -4627,11 +4359,8 @@
       <c r="G85" t="s">
         <v>136</v>
       </c>
-      <c r="J85" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -4653,11 +4382,8 @@
       <c r="G86" t="s">
         <v>136</v>
       </c>
-      <c r="J86" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -4679,11 +4405,8 @@
       <c r="G87" t="s">
         <v>136</v>
       </c>
-      <c r="J87" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -4705,11 +4428,8 @@
       <c r="G88" t="s">
         <v>136</v>
       </c>
-      <c r="J88" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>229</v>
       </c>
@@ -4731,11 +4451,8 @@
       <c r="G89" t="s">
         <v>36</v>
       </c>
-      <c r="J89">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -4757,11 +4474,8 @@
       <c r="G90" t="s">
         <v>136</v>
       </c>
-      <c r="J90" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -4783,11 +4497,8 @@
       <c r="G91" t="s">
         <v>36</v>
       </c>
-      <c r="J91">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>237</v>
       </c>
@@ -4809,11 +4520,8 @@
       <c r="G92" t="s">
         <v>10</v>
       </c>
-      <c r="J92">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>240</v>
       </c>
@@ -4835,11 +4543,8 @@
       <c r="G93" t="s">
         <v>10</v>
       </c>
-      <c r="J93">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>243</v>
       </c>
@@ -4861,11 +4566,8 @@
       <c r="G94" t="s">
         <v>10</v>
       </c>
-      <c r="J94">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>246</v>
       </c>
@@ -4887,11 +4589,8 @@
       <c r="G95" t="s">
         <v>10</v>
       </c>
-      <c r="J95">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>249</v>
       </c>
@@ -4913,11 +4612,8 @@
       <c r="G96" t="s">
         <v>136</v>
       </c>
-      <c r="J96">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>252</v>
       </c>
@@ -4939,11 +4635,8 @@
       <c r="G97" t="s">
         <v>136</v>
       </c>
-      <c r="J97">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>254</v>
       </c>
@@ -4965,11 +4658,8 @@
       <c r="G98" t="s">
         <v>136</v>
       </c>
-      <c r="J98">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -4991,11 +4681,8 @@
       <c r="G99" t="s">
         <v>36</v>
       </c>
-      <c r="J99" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5017,11 +4704,8 @@
       <c r="G100" t="s">
         <v>36</v>
       </c>
-      <c r="J100">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -5043,11 +4727,8 @@
       <c r="G101" t="s">
         <v>136</v>
       </c>
-      <c r="J101">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -5069,11 +4750,8 @@
       <c r="G102" t="s">
         <v>36</v>
       </c>
-      <c r="J102">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>266</v>
       </c>
@@ -5095,11 +4773,8 @@
       <c r="G103" t="s">
         <v>10</v>
       </c>
-      <c r="J103">
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>269</v>
       </c>
@@ -5121,11 +4796,8 @@
       <c r="G104" t="s">
         <v>36</v>
       </c>
-      <c r="J104">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>271</v>
       </c>
@@ -5147,11 +4819,8 @@
       <c r="G105" t="s">
         <v>136</v>
       </c>
-      <c r="J105" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -5173,11 +4842,8 @@
       <c r="G106" t="s">
         <v>36</v>
       </c>
-      <c r="J106">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -5199,11 +4865,8 @@
       <c r="G107" t="s">
         <v>36</v>
       </c>
-      <c r="J107" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -5225,11 +4888,8 @@
       <c r="G108" t="s">
         <v>10</v>
       </c>
-      <c r="J108">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>278</v>
       </c>
@@ -5251,11 +4911,8 @@
       <c r="G109" t="s">
         <v>36</v>
       </c>
-      <c r="J109">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>280</v>
       </c>
@@ -5277,11 +4934,8 @@
       <c r="G110" t="s">
         <v>36</v>
       </c>
-      <c r="J110">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>283</v>
       </c>
@@ -5303,11 +4957,8 @@
       <c r="G111" t="s">
         <v>36</v>
       </c>
-      <c r="J111">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>286</v>
       </c>
@@ -5329,11 +4980,8 @@
       <c r="G112" t="s">
         <v>36</v>
       </c>
-      <c r="J112">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>288</v>
       </c>
@@ -5355,11 +5003,8 @@
       <c r="G113" t="s">
         <v>10</v>
       </c>
-      <c r="J113">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>290</v>
       </c>
@@ -5381,11 +5026,8 @@
       <c r="G114" t="s">
         <v>10</v>
       </c>
-      <c r="J114">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -5407,11 +5049,8 @@
       <c r="G115" t="s">
         <v>136</v>
       </c>
-      <c r="J115">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>295</v>
       </c>
@@ -5433,11 +5072,8 @@
       <c r="G116" t="s">
         <v>36</v>
       </c>
-      <c r="J116">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>297</v>
       </c>
@@ -5459,11 +5095,8 @@
       <c r="G117" t="s">
         <v>36</v>
       </c>
-      <c r="J117">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>263</v>
       </c>
@@ -5485,11 +5118,8 @@
       <c r="G118" t="s">
         <v>10</v>
       </c>
-      <c r="J118">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -5511,11 +5141,8 @@
       <c r="G119" t="s">
         <v>10</v>
       </c>
-      <c r="J119">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>215</v>
       </c>
@@ -5537,11 +5164,8 @@
       <c r="G120" t="s">
         <v>10</v>
       </c>
-      <c r="J120">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>302</v>
       </c>
@@ -5563,11 +5187,8 @@
       <c r="G121" t="s">
         <v>136</v>
       </c>
-      <c r="J121">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>304</v>
       </c>
@@ -5589,11 +5210,8 @@
       <c r="G122" t="s">
         <v>136</v>
       </c>
-      <c r="J122">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>306</v>
       </c>
@@ -5615,11 +5233,8 @@
       <c r="G123" t="s">
         <v>36</v>
       </c>
-      <c r="J123">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -5641,11 +5256,8 @@
       <c r="G124" t="s">
         <v>10</v>
       </c>
-      <c r="J124">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>311</v>
       </c>
@@ -5667,11 +5279,8 @@
       <c r="G125" t="s">
         <v>36</v>
       </c>
-      <c r="J125" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>314</v>
       </c>
@@ -5693,11 +5302,8 @@
       <c r="G126" t="s">
         <v>36</v>
       </c>
-      <c r="J126">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>317</v>
       </c>
@@ -5719,11 +5325,8 @@
       <c r="G127" t="s">
         <v>36</v>
       </c>
-      <c r="J127">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>319</v>
       </c>
@@ -5745,11 +5348,8 @@
       <c r="G128" t="s">
         <v>36</v>
       </c>
-      <c r="J128">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>321</v>
       </c>
@@ -5771,11 +5371,8 @@
       <c r="G129" t="s">
         <v>136</v>
       </c>
-      <c r="J129">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>323</v>
       </c>
@@ -5797,11 +5394,8 @@
       <c r="G130" t="s">
         <v>36</v>
       </c>
-      <c r="J130">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>286</v>
       </c>
@@ -5823,11 +5417,8 @@
       <c r="G131" t="s">
         <v>10</v>
       </c>
-      <c r="J131">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>283</v>
       </c>
@@ -5849,11 +5440,8 @@
       <c r="G132" t="s">
         <v>10</v>
       </c>
-      <c r="J132">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -5875,11 +5463,8 @@
       <c r="G133" t="s">
         <v>10</v>
       </c>
-      <c r="J133">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -5901,11 +5486,8 @@
       <c r="G134" t="s">
         <v>10</v>
       </c>
-      <c r="J134">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>330</v>
       </c>
@@ -5927,11 +5509,8 @@
       <c r="G135" t="s">
         <v>36</v>
       </c>
-      <c r="J135">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>332</v>
       </c>
@@ -5953,11 +5532,8 @@
       <c r="G136" t="s">
         <v>36</v>
       </c>
-      <c r="J136" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>335</v>
       </c>
@@ -5979,11 +5555,8 @@
       <c r="G137" t="s">
         <v>36</v>
       </c>
-      <c r="J137">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>278</v>
       </c>
@@ -6005,11 +5578,8 @@
       <c r="G138" t="s">
         <v>10</v>
       </c>
-      <c r="J138">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -6031,11 +5601,8 @@
       <c r="G139" t="s">
         <v>10</v>
       </c>
-      <c r="J139">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>339</v>
       </c>
@@ -6057,11 +5624,8 @@
       <c r="G140" t="s">
         <v>36</v>
       </c>
-      <c r="J140" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>342</v>
       </c>
@@ -6083,11 +5647,8 @@
       <c r="G141" t="s">
         <v>36</v>
       </c>
-      <c r="J141">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>344</v>
       </c>
@@ -6109,11 +5670,8 @@
       <c r="G142" t="s">
         <v>10</v>
       </c>
-      <c r="J142">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>347</v>
       </c>
@@ -6135,11 +5693,8 @@
       <c r="G143" t="s">
         <v>36</v>
       </c>
-      <c r="J143" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>350</v>
       </c>
@@ -6161,11 +5716,8 @@
       <c r="G144" t="s">
         <v>36</v>
       </c>
-      <c r="J144">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>352</v>
       </c>
@@ -6187,11 +5739,8 @@
       <c r="G145" t="s">
         <v>36</v>
       </c>
-      <c r="J145">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>354</v>
       </c>
@@ -6213,11 +5762,8 @@
       <c r="G146" t="s">
         <v>36</v>
       </c>
-      <c r="J146">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>357</v>
       </c>
@@ -6239,11 +5785,8 @@
       <c r="G147" t="s">
         <v>36</v>
       </c>
-      <c r="J147">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>359</v>
       </c>
@@ -6265,11 +5808,8 @@
       <c r="G148" t="s">
         <v>36</v>
       </c>
-      <c r="J148">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>361</v>
       </c>
@@ -6291,11 +5831,8 @@
       <c r="G149" t="s">
         <v>36</v>
       </c>
-      <c r="J149">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>364</v>
       </c>
@@ -6317,11 +5854,8 @@
       <c r="G150" t="s">
         <v>36</v>
       </c>
-      <c r="J150">
-        <v>33800</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>295</v>
       </c>
@@ -6343,11 +5877,8 @@
       <c r="G151" t="s">
         <v>10</v>
       </c>
-      <c r="J151">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>368</v>
       </c>
@@ -6369,11 +5900,8 @@
       <c r="G152" t="s">
         <v>36</v>
       </c>
-      <c r="J152" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -6395,11 +5923,8 @@
       <c r="G153" t="s">
         <v>10</v>
       </c>
-      <c r="J153">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -6421,11 +5946,8 @@
       <c r="G154" t="s">
         <v>10</v>
       </c>
-      <c r="J154">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>373</v>
       </c>
@@ -6447,11 +5969,8 @@
       <c r="G155" t="s">
         <v>36</v>
       </c>
-      <c r="J155">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>375</v>
       </c>
@@ -6473,11 +5992,8 @@
       <c r="G156" t="s">
         <v>36</v>
       </c>
-      <c r="J156" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>314</v>
       </c>
@@ -6499,11 +6015,8 @@
       <c r="G157" t="s">
         <v>10</v>
       </c>
-      <c r="J157">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -6525,11 +6038,8 @@
       <c r="G158" t="s">
         <v>10</v>
       </c>
-      <c r="J158">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -6551,11 +6061,8 @@
       <c r="G159" t="s">
         <v>10</v>
       </c>
-      <c r="J159">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -6577,11 +6084,8 @@
       <c r="G160" t="s">
         <v>10</v>
       </c>
-      <c r="J160">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>382</v>
       </c>
@@ -6603,11 +6107,8 @@
       <c r="G161" t="s">
         <v>36</v>
       </c>
-      <c r="J161">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -6629,11 +6130,8 @@
       <c r="G162" t="s">
         <v>10</v>
       </c>
-      <c r="J162">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -6655,11 +6153,8 @@
       <c r="G163" t="s">
         <v>10</v>
       </c>
-      <c r="J163">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -6681,11 +6176,8 @@
       <c r="G164" t="s">
         <v>10</v>
       </c>
-      <c r="J164">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -6707,11 +6199,8 @@
       <c r="G165" t="s">
         <v>36</v>
       </c>
-      <c r="J165">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>359</v>
       </c>
@@ -6733,11 +6222,8 @@
       <c r="G166" t="s">
         <v>10</v>
       </c>
-      <c r="J166">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>373</v>
       </c>
@@ -6759,11 +6245,8 @@
       <c r="G167" t="s">
         <v>10</v>
       </c>
-      <c r="J167">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>392</v>
       </c>
@@ -6785,11 +6268,8 @@
       <c r="G168" t="s">
         <v>36</v>
       </c>
-      <c r="J168">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>352</v>
       </c>
@@ -6811,11 +6291,8 @@
       <c r="G169" t="s">
         <v>10</v>
       </c>
-      <c r="J169">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>357</v>
       </c>
@@ -6837,11 +6314,8 @@
       <c r="G170" t="s">
         <v>10</v>
       </c>
-      <c r="J170">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>375</v>
       </c>
@@ -6863,11 +6337,8 @@
       <c r="G171" t="s">
         <v>10</v>
       </c>
-      <c r="J171">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>398</v>
       </c>
@@ -6889,11 +6360,8 @@
       <c r="G172" t="s">
         <v>36</v>
       </c>
-      <c r="J172" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>401</v>
       </c>
@@ -6915,11 +6383,8 @@
       <c r="G173" t="s">
         <v>36</v>
       </c>
-      <c r="J173">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>350</v>
       </c>
@@ -6941,11 +6406,8 @@
       <c r="G174" t="s">
         <v>10</v>
       </c>
-      <c r="J174">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>364</v>
       </c>
@@ -6967,11 +6429,8 @@
       <c r="G175" t="s">
         <v>10</v>
       </c>
-      <c r="J175">
-        <v>33800</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>405</v>
       </c>
@@ -6993,11 +6452,8 @@
       <c r="G176" t="s">
         <v>10</v>
       </c>
-      <c r="J176">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>388</v>
       </c>
@@ -7019,11 +6475,8 @@
       <c r="G177" t="s">
         <v>10</v>
       </c>
-      <c r="J177">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>408</v>
       </c>
@@ -7045,11 +6498,8 @@
       <c r="G178" t="s">
         <v>10</v>
       </c>
-      <c r="J178">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>368</v>
       </c>
@@ -7071,11 +6521,8 @@
       <c r="G179" t="s">
         <v>10</v>
       </c>
-      <c r="J179">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>412</v>
       </c>
@@ -7097,11 +6544,8 @@
       <c r="G180" t="s">
         <v>36</v>
       </c>
-      <c r="J180">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>401</v>
       </c>
@@ -7123,11 +6567,8 @@
       <c r="G181" t="s">
         <v>10</v>
       </c>
-      <c r="J181">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>392</v>
       </c>
@@ -7149,11 +6590,8 @@
       <c r="G182" t="s">
         <v>10</v>
       </c>
-      <c r="J182">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>382</v>
       </c>
@@ -7175,11 +6613,8 @@
       <c r="G183" t="s">
         <v>10</v>
       </c>
-      <c r="J183">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>417</v>
       </c>
@@ -7201,11 +6636,8 @@
       <c r="G184" t="s">
         <v>36</v>
       </c>
-      <c r="J184">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -7227,11 +6659,8 @@
       <c r="G185" t="s">
         <v>36</v>
       </c>
-      <c r="J185">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>421</v>
       </c>
@@ -7253,11 +6682,8 @@
       <c r="G186" t="s">
         <v>10</v>
       </c>
-      <c r="J186">
-        <v>5382</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>424</v>
       </c>
@@ -7279,11 +6705,8 @@
       <c r="G187" t="s">
         <v>136</v>
       </c>
-      <c r="J187">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>427</v>
       </c>
@@ -7305,11 +6728,8 @@
       <c r="G188" t="s">
         <v>136</v>
       </c>
-      <c r="J188">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>429</v>
       </c>
@@ -7331,11 +6751,8 @@
       <c r="G189" t="s">
         <v>136</v>
       </c>
-      <c r="J189">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>431</v>
       </c>
@@ -7357,11 +6774,8 @@
       <c r="G190" t="s">
         <v>136</v>
       </c>
-      <c r="J190">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>433</v>
       </c>
@@ -7383,11 +6797,8 @@
       <c r="G191" t="s">
         <v>136</v>
       </c>
-      <c r="J191">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>435</v>
       </c>
@@ -7409,11 +6820,8 @@
       <c r="G192" t="s">
         <v>136</v>
       </c>
-      <c r="J192" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>344</v>
       </c>
@@ -7435,11 +6843,8 @@
       <c r="G193" t="s">
         <v>36</v>
       </c>
-      <c r="J193">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>439</v>
       </c>
@@ -7461,11 +6866,8 @@
       <c r="G194" t="s">
         <v>36</v>
       </c>
-      <c r="J194" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>442</v>
       </c>
@@ -7487,11 +6889,8 @@
       <c r="G195" t="s">
         <v>36</v>
       </c>
-      <c r="J195" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>445</v>
       </c>
@@ -7513,11 +6912,8 @@
       <c r="G196" t="s">
         <v>36</v>
       </c>
-      <c r="J196">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>448</v>
       </c>
@@ -7539,11 +6935,8 @@
       <c r="G197" t="s">
         <v>36</v>
       </c>
-      <c r="J197">
-        <v>26505</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>319</v>
       </c>
@@ -7565,11 +6958,8 @@
       <c r="G198" t="s">
         <v>10</v>
       </c>
-      <c r="J198">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>297</v>
       </c>
@@ -7591,11 +6981,8 @@
       <c r="G199" t="s">
         <v>10</v>
       </c>
-      <c r="J199">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>453</v>
       </c>
@@ -7617,11 +7004,8 @@
       <c r="G200" t="s">
         <v>36</v>
       </c>
-      <c r="J200">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -7643,11 +7027,8 @@
       <c r="G201" t="s">
         <v>10</v>
       </c>
-      <c r="J201">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>445</v>
       </c>
@@ -7669,11 +7050,8 @@
       <c r="G202" t="s">
         <v>10</v>
       </c>
-      <c r="J202">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>457</v>
       </c>
@@ -7695,11 +7073,8 @@
       <c r="G203" t="s">
         <v>36</v>
       </c>
-      <c r="J203">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>453</v>
       </c>
@@ -7721,11 +7096,8 @@
       <c r="G204" t="s">
         <v>10</v>
       </c>
-      <c r="J204">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>461</v>
       </c>
@@ -7747,11 +7119,8 @@
       <c r="G205" t="s">
         <v>36</v>
       </c>
-      <c r="J205">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>464</v>
       </c>
@@ -7773,11 +7142,8 @@
       <c r="G206" t="s">
         <v>136</v>
       </c>
-      <c r="J206" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>468</v>
       </c>
@@ -7799,11 +7165,8 @@
       <c r="G207" t="s">
         <v>136</v>
       </c>
-      <c r="J207" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>470</v>
       </c>
@@ -7825,11 +7188,8 @@
       <c r="G208" t="s">
         <v>474</v>
       </c>
-      <c r="J208" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>475</v>
       </c>
@@ -7851,11 +7211,8 @@
       <c r="G209" t="s">
         <v>10</v>
       </c>
-      <c r="J209">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -7877,11 +7234,8 @@
       <c r="G210" t="s">
         <v>10</v>
       </c>
-      <c r="J210">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -7903,11 +7257,8 @@
       <c r="G211" t="s">
         <v>10</v>
       </c>
-      <c r="J211">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>205</v>
       </c>
@@ -7929,11 +7280,8 @@
       <c r="G212" t="s">
         <v>10</v>
       </c>
-      <c r="J212">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>483</v>
       </c>
@@ -7955,11 +7303,8 @@
       <c r="G213" t="s">
         <v>10</v>
       </c>
-      <c r="J213">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>486</v>
       </c>
@@ -7981,11 +7326,8 @@
       <c r="G214" t="s">
         <v>10</v>
       </c>
-      <c r="J214">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>317</v>
       </c>
@@ -8007,11 +7349,8 @@
       <c r="G215" t="s">
         <v>10</v>
       </c>
-      <c r="J215">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>364</v>
       </c>
@@ -8033,11 +7372,8 @@
       <c r="G216" t="s">
         <v>10</v>
       </c>
-      <c r="J216">
-        <v>31434</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>493</v>
       </c>
@@ -8059,11 +7395,8 @@
       <c r="G217" t="s">
         <v>10</v>
       </c>
-      <c r="J217">
-        <v>15010</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>496</v>
       </c>
@@ -8085,11 +7418,8 @@
       <c r="G218" t="s">
         <v>10</v>
       </c>
-      <c r="J218">
-        <v>7125</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -8111,11 +7441,8 @@
       <c r="G219" t="s">
         <v>10</v>
       </c>
-      <c r="J219">
-        <v>7114</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>505</v>
       </c>
@@ -8137,11 +7464,8 @@
       <c r="G220" t="s">
         <v>508</v>
       </c>
-      <c r="J220">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>509</v>
       </c>
@@ -8163,11 +7487,8 @@
       <c r="G221" t="s">
         <v>508</v>
       </c>
-      <c r="J221" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>512</v>
       </c>
@@ -8189,11 +7510,8 @@
       <c r="G222" t="s">
         <v>508</v>
       </c>
-      <c r="J222">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>514</v>
       </c>
@@ -8215,11 +7533,8 @@
       <c r="G223" t="s">
         <v>508</v>
       </c>
-      <c r="J223">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>516</v>
       </c>
@@ -8241,11 +7556,8 @@
       <c r="G224" t="s">
         <v>508</v>
       </c>
-      <c r="J224">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>518</v>
       </c>
@@ -8267,11 +7579,8 @@
       <c r="G225" t="s">
         <v>508</v>
       </c>
-      <c r="J225" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>520</v>
       </c>
@@ -8293,11 +7602,8 @@
       <c r="G226" t="s">
         <v>508</v>
       </c>
-      <c r="J226">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -8319,11 +7625,8 @@
       <c r="G227" t="s">
         <v>10</v>
       </c>
-      <c r="J227">
-        <v>14220</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>82</v>
       </c>
@@ -8345,11 +7648,8 @@
       <c r="G228" t="s">
         <v>10</v>
       </c>
-      <c r="J228">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>523</v>
       </c>
@@ -8371,11 +7671,8 @@
       <c r="G229" t="s">
         <v>474</v>
       </c>
-      <c r="J229" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>525</v>
       </c>
@@ -8397,11 +7694,8 @@
       <c r="G230" t="s">
         <v>508</v>
       </c>
-      <c r="J230">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>527</v>
       </c>
@@ -8423,11 +7717,8 @@
       <c r="G231" t="s">
         <v>508</v>
       </c>
-      <c r="J231">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>530</v>
       </c>
@@ -8449,11 +7740,8 @@
       <c r="G232" t="s">
         <v>508</v>
       </c>
-      <c r="J232">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>532</v>
       </c>
@@ -8475,11 +7763,8 @@
       <c r="G233" t="s">
         <v>508</v>
       </c>
-      <c r="J233">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>534</v>
       </c>
@@ -8501,11 +7786,8 @@
       <c r="G234" t="s">
         <v>474</v>
       </c>
-      <c r="J234">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>536</v>
       </c>
@@ -8527,11 +7809,8 @@
       <c r="G235" t="s">
         <v>508</v>
       </c>
-      <c r="J235" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>538</v>
       </c>
@@ -8553,11 +7832,8 @@
       <c r="G236" t="s">
         <v>541</v>
       </c>
-      <c r="J236">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>542</v>
       </c>
@@ -8579,11 +7855,8 @@
       <c r="G237" t="s">
         <v>474</v>
       </c>
-      <c r="J237" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>544</v>
       </c>
@@ -8605,11 +7878,8 @@
       <c r="G238" t="s">
         <v>541</v>
       </c>
-      <c r="J238">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>546</v>
       </c>
@@ -8631,11 +7901,8 @@
       <c r="G239" t="s">
         <v>508</v>
       </c>
-      <c r="J239">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>548</v>
       </c>
@@ -8657,11 +7924,8 @@
       <c r="G240" t="s">
         <v>541</v>
       </c>
-      <c r="J240" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>550</v>
       </c>
@@ -8683,11 +7947,8 @@
       <c r="G241" t="s">
         <v>508</v>
       </c>
-      <c r="J241">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>552</v>
       </c>
@@ -8709,11 +7970,8 @@
       <c r="G242" t="s">
         <v>508</v>
       </c>
-      <c r="J242">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>554</v>
       </c>
@@ -8735,11 +7993,8 @@
       <c r="G243" t="s">
         <v>508</v>
       </c>
-      <c r="J243">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>556</v>
       </c>
@@ -8761,11 +8016,8 @@
       <c r="G244" t="s">
         <v>508</v>
       </c>
-      <c r="J244">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>558</v>
       </c>
@@ -8787,11 +8039,8 @@
       <c r="G245" t="s">
         <v>508</v>
       </c>
-      <c r="J245" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>560</v>
       </c>
@@ -8813,11 +8062,8 @@
       <c r="G246" t="s">
         <v>474</v>
       </c>
-      <c r="J246" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>562</v>
       </c>
@@ -8839,11 +8085,8 @@
       <c r="G247" t="s">
         <v>508</v>
       </c>
-      <c r="J247" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>564</v>
       </c>
@@ -8865,11 +8108,8 @@
       <c r="G248" t="s">
         <v>508</v>
       </c>
-      <c r="J248">
-        <v>21500</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>567</v>
       </c>
@@ -8891,11 +8131,8 @@
       <c r="G249" t="s">
         <v>508</v>
       </c>
-      <c r="J249">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>569</v>
       </c>
@@ -8917,11 +8154,8 @@
       <c r="G250" t="s">
         <v>508</v>
       </c>
-      <c r="J250">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>571</v>
       </c>
@@ -8943,11 +8177,8 @@
       <c r="G251" t="s">
         <v>508</v>
       </c>
-      <c r="J251" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>573</v>
       </c>
@@ -8969,11 +8200,8 @@
       <c r="G252" t="s">
         <v>474</v>
       </c>
-      <c r="J252" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>576</v>
       </c>
@@ -8995,11 +8223,8 @@
       <c r="G253" t="s">
         <v>474</v>
       </c>
-      <c r="J253">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>70</v>
       </c>
@@ -9021,11 +8246,8 @@
       <c r="G254" t="s">
         <v>10</v>
       </c>
-      <c r="J254">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>79</v>
       </c>
@@ -9047,11 +8269,8 @@
       <c r="G255" t="s">
         <v>10</v>
       </c>
-      <c r="J255">
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>580</v>
       </c>
@@ -9073,11 +8292,8 @@
       <c r="G256" t="s">
         <v>508</v>
       </c>
-      <c r="J256">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>582</v>
       </c>
@@ -9099,11 +8315,8 @@
       <c r="G257" t="s">
         <v>474</v>
       </c>
-      <c r="J257">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>584</v>
       </c>
@@ -9125,11 +8338,8 @@
       <c r="G258" t="s">
         <v>588</v>
       </c>
-      <c r="J258">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>589</v>
       </c>
@@ -9151,11 +8361,8 @@
       <c r="G259" t="s">
         <v>508</v>
       </c>
-      <c r="J259" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>592</v>
       </c>
@@ -9177,11 +8384,8 @@
       <c r="G260" t="s">
         <v>136</v>
       </c>
-      <c r="J260">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>594</v>
       </c>
@@ -9203,11 +8407,8 @@
       <c r="G261" t="s">
         <v>508</v>
       </c>
-      <c r="J261">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>597</v>
       </c>
@@ -9229,11 +8430,8 @@
       <c r="G262" t="s">
         <v>508</v>
       </c>
-      <c r="J262" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>601</v>
       </c>
@@ -9255,11 +8453,8 @@
       <c r="G263" t="s">
         <v>508</v>
       </c>
-      <c r="J263">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>603</v>
       </c>
@@ -9281,11 +8476,8 @@
       <c r="G264" t="s">
         <v>474</v>
       </c>
-      <c r="J264" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>606</v>
       </c>
@@ -9307,11 +8499,8 @@
       <c r="G265" t="s">
         <v>474</v>
       </c>
-      <c r="J265">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>608</v>
       </c>
@@ -9333,11 +8522,8 @@
       <c r="G266" t="s">
         <v>508</v>
       </c>
-      <c r="J266">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>610</v>
       </c>
@@ -9359,11 +8545,8 @@
       <c r="G267" t="s">
         <v>508</v>
       </c>
-      <c r="J267">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>612</v>
       </c>
@@ -9385,11 +8568,8 @@
       <c r="G268" t="s">
         <v>508</v>
       </c>
-      <c r="J268">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>614</v>
       </c>
@@ -9411,11 +8591,8 @@
       <c r="G269" t="s">
         <v>508</v>
       </c>
-      <c r="J269">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>616</v>
       </c>
@@ -9437,11 +8614,8 @@
       <c r="G270" t="s">
         <v>136</v>
       </c>
-      <c r="J270" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>618</v>
       </c>
@@ -9463,11 +8637,8 @@
       <c r="G271" t="s">
         <v>508</v>
       </c>
-      <c r="J271">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>621</v>
       </c>
@@ -9489,11 +8660,8 @@
       <c r="G272" t="s">
         <v>508</v>
       </c>
-      <c r="J272">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>623</v>
       </c>
@@ -9515,11 +8683,8 @@
       <c r="G273" t="s">
         <v>508</v>
       </c>
-      <c r="J273">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>625</v>
       </c>
@@ -9541,11 +8706,8 @@
       <c r="G274" t="s">
         <v>508</v>
       </c>
-      <c r="J274">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>627</v>
       </c>
@@ -9567,11 +8729,8 @@
       <c r="G275" t="s">
         <v>508</v>
       </c>
-      <c r="J275">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>630</v>
       </c>
@@ -9593,11 +8752,8 @@
       <c r="G276" t="s">
         <v>508</v>
       </c>
-      <c r="J276">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>633</v>
       </c>
@@ -9619,11 +8775,8 @@
       <c r="G277" t="s">
         <v>508</v>
       </c>
-      <c r="J277">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>636</v>
       </c>
@@ -9645,11 +8798,8 @@
       <c r="G278" t="s">
         <v>136</v>
       </c>
-      <c r="J278">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>638</v>
       </c>
@@ -9671,11 +8821,8 @@
       <c r="G279" t="s">
         <v>508</v>
       </c>
-      <c r="J279">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>30</v>
       </c>
@@ -9696,9 +8843,6 @@
       </c>
       <c r="G280" t="s">
         <v>36</v>
-      </c>
-      <c r="J280">
-        <v>4900</v>
       </c>
     </row>
   </sheetData>
